--- a/static/ImportFailureData.xlsx
+++ b/static/ImportFailureData.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SE9WSecd9omRQLMpkJAPYHWg4D9KxVE8bu4oeoVVKnY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jnF1n7YHWBGuAyQL8XYhjDseYpbr4xSFHuTNCNHS7gg="/>
     </ext>
   </extLst>
 </workbook>
@@ -24,10 +24,10 @@
     <t>Depot Location</t>
   </si>
   <si>
-    <t>Failure Reported Date</t>
-  </si>
-  <si>
-    <t>Failure Reported Time</t>
+    <t>Failure Reported Date (DD-MM-YYYY)</t>
+  </si>
+  <si>
+    <t>Failure Reported Time (HH:MM:SS)</t>
   </si>
   <si>
     <t>Train Set No</t>
@@ -66,7 +66,7 @@
     <t>Deboarding</t>
   </si>
   <si>
-    <t>Revenue Service Delay</t>
+    <t>Revenue Service Delay (mins)</t>
   </si>
   <si>
     <t>Failure type</t>
@@ -82,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -147,12 +150,12 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -372,7 +375,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
     <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="4" max="4" width="8.71"/>
     <col customWidth="1" min="5" max="5" width="11.29"/>
     <col customWidth="1" min="6" max="6" width="7.29"/>
     <col customWidth="1" min="7" max="7" width="19.43"/>
@@ -401,7 +404,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -434,13 +437,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -488,6 +491,339 @@
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/static/ImportFailureData.xlsx
+++ b/static/ImportFailureData.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jnF1n7YHWBGuAyQL8XYhjDseYpbr4xSFHuTNCNHS7gg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="v//ZOGS8QkJDkgWyq+gyibxwmEgqgZkleeHOME1cJXo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Failure ID</t>
   </si>
@@ -76,15 +76,15 @@
   </si>
   <si>
     <t>Asset config id</t>
+  </si>
+  <si>
+    <t>Incident</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11.0"/>
@@ -144,18 +144,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -375,7 +378,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
     <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
     <col customWidth="1" min="5" max="5" width="11.29"/>
     <col customWidth="1" min="6" max="6" width="7.29"/>
     <col customWidth="1" min="7" max="7" width="19.43"/>
@@ -404,7 +407,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -437,13 +440,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -455,12 +458,14 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1"/>
@@ -483,347 +488,6 @@
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
